--- a/Relatorio.xlsx
+++ b/Relatorio.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ainet\proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escola\Laravel\Projecto\projeto-ainet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A24D5E-ADEB-4E8F-B6C3-10E0213A474C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047B3AF8-6DAF-4EB8-BAF2-484BF617F53B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="r4nu9Ssdyn72ILa6XbtalE42PurdRQmxRqHxzo4atH0UewdE3DlkXcEp4UjmR6dvzrejvdX+lgJ5anmpyEOIJQ==" workbookSaltValue="lHIEEz18LbXEtJsTJI7DEA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16464" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório Projeto AI 2018-19" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="117">
   <si>
     <t>Nº Grupo</t>
   </si>
@@ -483,6 +483,12 @@
   </si>
   <si>
     <t>Jose Luis León Guillen</t>
+  </si>
+  <si>
+    <t>Nas estatisicas de horas de voo (aeronaves e pilotos), colocou-se um form para escolha de piloto (presente no ano escolhido, ou presente na bd) e apresentou-se o valor minimo e máximo para  comparação</t>
+  </si>
+  <si>
+    <t>Completo</t>
   </si>
 </sst>
 </file>
@@ -762,6 +768,55 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -785,55 +840,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,28 +1186,28 @@
   <dimension ref="B1:L70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11:K11"/>
+      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="22.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.19921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="2.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="82.5" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.796875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="78.69921875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="10.796875" style="2"/>
+    <col min="10" max="11" width="7.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="78.75" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1212,16 +1218,16 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="2:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1237,13 +1243,13 @@
       <c r="H5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="2:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1259,13 +1265,13 @@
       <c r="H6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" spans="2:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1281,139 +1287,141 @@
       <c r="H7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-    </row>
-    <row r="9" spans="2:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="41" t="s">
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="9" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="2:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="42" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-    </row>
-    <row r="11" spans="2:11" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="2:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-    </row>
-    <row r="13" spans="2:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="2:11" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="2:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="2:11" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="2:11" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="2:12" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="2:12" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="2:12" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="21" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
+    <row r="19" spans="2:12" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+    </row>
+    <row r="21" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="22" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27" t="s">
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="17" t="s">
         <v>50</v>
       </c>
@@ -1424,19 +1432,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
+      <c r="C23" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="19" t="s">
         <v>51</v>
       </c>
@@ -1447,19 +1455,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
+      <c r="C24" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19">
         <v>1</v>
@@ -1468,19 +1476,19 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
+      <c r="C25" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="19" t="s">
         <v>51</v>
       </c>
@@ -1491,19 +1499,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
+      <c r="C26" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="19" t="s">
         <v>51</v>
       </c>
@@ -1514,19 +1522,19 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
+      <c r="C27" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="19" t="s">
         <v>51</v>
       </c>
@@ -1537,19 +1545,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
+      <c r="C28" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="19" t="s">
         <v>51</v>
       </c>
@@ -1560,19 +1568,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
+      <c r="C29" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="19" t="s">
         <v>51</v>
       </c>
@@ -1583,19 +1591,19 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
+      <c r="C30" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="19" t="s">
         <v>51</v>
       </c>
@@ -1606,19 +1614,19 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
+      <c r="C31" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="19" t="s">
         <v>51</v>
       </c>
@@ -1629,19 +1637,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
+      <c r="C32" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="19" t="s">
         <v>51</v>
       </c>
@@ -1652,19 +1660,19 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
+      <c r="C33" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="19" t="s">
         <v>51</v>
       </c>
@@ -1675,19 +1683,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
+      <c r="C34" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="19" t="s">
         <v>51</v>
       </c>
@@ -1698,19 +1706,19 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
+      <c r="C35" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19">
         <v>6</v>
@@ -1719,19 +1727,19 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
+      <c r="C36" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="19" t="s">
         <v>51</v>
       </c>
@@ -1742,19 +1750,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
+      <c r="C37" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="19" t="s">
         <v>51</v>
       </c>
@@ -1765,19 +1773,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
+      <c r="C38" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="19" t="s">
         <v>51</v>
       </c>
@@ -1788,19 +1796,19 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
+      <c r="C39" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="19" t="s">
         <v>51</v>
       </c>
@@ -1811,19 +1819,19 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
+      <c r="C40" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19">
         <v>3</v>
@@ -1832,19 +1840,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
+      <c r="C41" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="19"/>
       <c r="K41" s="19">
         <v>4</v>
@@ -1853,19 +1861,19 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
+      <c r="C42" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
       <c r="J42" s="19" t="s">
         <v>51</v>
       </c>
@@ -1876,19 +1884,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
+      <c r="C43" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
       <c r="J43" s="19" t="s">
         <v>51</v>
       </c>
@@ -1899,19 +1907,19 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
+      <c r="C44" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
       <c r="J44" s="19" t="s">
         <v>51</v>
       </c>
@@ -1922,19 +1930,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
+      <c r="C45" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
       <c r="J45" s="19" t="s">
         <v>51</v>
       </c>
@@ -1945,19 +1953,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
+      <c r="C46" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
       <c r="J46" s="19" t="s">
         <v>51</v>
       </c>
@@ -1968,19 +1976,19 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
+      <c r="C47" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
       <c r="J47" s="19"/>
       <c r="K47" s="19">
         <v>1</v>
@@ -1989,19 +1997,19 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
+      <c r="C48" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
       <c r="J48" s="19" t="s">
         <v>51</v>
       </c>
@@ -2012,19 +2020,19 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
+      <c r="C49" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
       <c r="J49" s="19" t="s">
         <v>51</v>
       </c>
@@ -2035,19 +2043,19 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
+      <c r="C50" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
       <c r="J50" s="19" t="s">
         <v>51</v>
       </c>
@@ -2058,19 +2066,19 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
+      <c r="C51" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
       <c r="J51" s="19"/>
       <c r="K51" s="19">
         <v>4</v>
@@ -2079,19 +2087,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
+      <c r="C52" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
       <c r="J52" s="19"/>
       <c r="K52" s="19">
         <v>3</v>
@@ -2100,19 +2108,19 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
+      <c r="C53" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19">
         <v>1</v>
@@ -2121,19 +2129,19 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
+      <c r="C54" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
       <c r="J54" s="19"/>
       <c r="K54" s="19">
         <v>4</v>
@@ -2142,19 +2150,19 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
+      <c r="C55" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
       <c r="J55" s="19"/>
       <c r="K55" s="19">
         <v>8</v>
@@ -2163,232 +2171,232 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="24" t="s">
+    <row r="57" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-    </row>
-    <row r="58" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+    </row>
+    <row r="58" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28">
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41">
         <v>15</v>
       </c>
       <c r="L58" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
       <c r="L59" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
       <c r="L60" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
       <c r="L61" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
       <c r="L62" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
       <c r="L63" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
       <c r="L64" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
       <c r="L65" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
       <c r="L66" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
       <c r="L67" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
       <c r="L68" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="2:12" s="21" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" s="21" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="22" t="s">
         <v>110</v>
       </c>
@@ -2396,85 +2404,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="IN93kqyljkoEgClofw0Q7Or+OqrukMkref6wORKIReYkyivvK6rg1GR3bdW7P+uG208P8Qs0LzJfOpcLuDt2qQ==" saltValue="hnqcxFO1TtfD2N63/RW6dw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="103">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:I55"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
@@ -2499,6 +2428,85 @@
     <mergeCell ref="F65:I65"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="F60:I60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B11:K11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C58:E68">

--- a/Relatorio.xlsx
+++ b/Relatorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escola\Laravel\Projecto\projeto-ainet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047B3AF8-6DAF-4EB8-BAF2-484BF617F53B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7CA01E-5180-4683-A952-245E75416254}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="r4nu9Ssdyn72ILa6XbtalE42PurdRQmxRqHxzo4atH0UewdE3DlkXcEp4UjmR6dvzrejvdX+lgJ5anmpyEOIJQ==" workbookSaltValue="lHIEEz18LbXEtJsTJI7DEA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="119">
   <si>
     <t>Nº Grupo</t>
   </si>
@@ -485,10 +485,16 @@
     <t>Jose Luis León Guillen</t>
   </si>
   <si>
-    <t>Nas estatisicas de horas de voo (aeronaves e pilotos), colocou-se um form para escolha de piloto (presente no ano escolhido, ou presente na bd) e apresentou-se o valor minimo e máximo para  comparação</t>
-  </si>
-  <si>
     <t>Completo</t>
+  </si>
+  <si>
+    <t>Falha o teste "Change password falha com old password errada" mas na realidade não dá para mudar a password se a pass for errada</t>
+  </si>
+  <si>
+    <t>Nas estatisicas de horas de voo (aeronaves e pilotos), colocou-se um form para escolha de piloto (presente no ano escolhido, ou presente na bd) e apresentou-se o valor minimo e máximo para  comparação; A  aplicação não deixa reutilizar passwords;</t>
+  </si>
+  <si>
+    <t>Campo "endereco" invalido, mas tem esse campo</t>
   </si>
 </sst>
 </file>
@@ -768,6 +774,43 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -781,7 +824,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -793,7 +836,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -803,43 +846,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,8 +1192,8 @@
   <dimension ref="B1:L70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26:E26"/>
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1243,11 +1249,11 @@
       <c r="H5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -1265,11 +1271,11 @@
       <c r="H6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -1287,57 +1293,57 @@
       <c r="H7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="9" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="2:11" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -1352,18 +1358,18 @@
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="2:11" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="B15" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
@@ -1382,46 +1388,46 @@
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="2:12" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="21" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="17" t="s">
         <v>50</v>
       </c>
@@ -1436,15 +1442,15 @@
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="C23" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
       <c r="J23" s="19" t="s">
         <v>51</v>
       </c>
@@ -1459,15 +1465,15 @@
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
+      <c r="C24" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19">
         <v>1</v>
@@ -1480,15 +1486,15 @@
       <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
+      <c r="C25" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="19" t="s">
         <v>51</v>
       </c>
@@ -1503,15 +1509,15 @@
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="C26" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="19" t="s">
         <v>51</v>
       </c>
@@ -1526,15 +1532,17 @@
       <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="C27" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
       <c r="J27" s="19" t="s">
         <v>51</v>
       </c>
@@ -1549,15 +1557,17 @@
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
+      <c r="C28" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
       <c r="J28" s="19" t="s">
         <v>51</v>
       </c>
@@ -1572,15 +1582,15 @@
       <c r="B29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
+      <c r="C29" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
       <c r="J29" s="19" t="s">
         <v>51</v>
       </c>
@@ -1595,15 +1605,15 @@
       <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="C30" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="19" t="s">
         <v>51</v>
       </c>
@@ -1618,15 +1628,15 @@
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="C31" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="19" t="s">
         <v>51</v>
       </c>
@@ -1641,15 +1651,15 @@
       <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="C32" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="19" t="s">
         <v>51</v>
       </c>
@@ -1664,15 +1674,15 @@
       <c r="B33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="C33" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="19" t="s">
         <v>51</v>
       </c>
@@ -1687,15 +1697,15 @@
       <c r="B34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="C34" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="19" t="s">
         <v>51</v>
       </c>
@@ -1710,15 +1720,15 @@
       <c r="B35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="C35" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19">
         <v>6</v>
@@ -1731,15 +1741,15 @@
       <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
+      <c r="C36" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="19" t="s">
         <v>51</v>
       </c>
@@ -1754,15 +1764,15 @@
       <c r="B37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+      <c r="C37" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
       <c r="J37" s="19" t="s">
         <v>51</v>
       </c>
@@ -1777,15 +1787,15 @@
       <c r="B38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
+      <c r="C38" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="19" t="s">
         <v>51</v>
       </c>
@@ -1800,15 +1810,15 @@
       <c r="B39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
+      <c r="C39" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
       <c r="J39" s="19" t="s">
         <v>51</v>
       </c>
@@ -1823,15 +1833,15 @@
       <c r="B40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
+      <c r="C40" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19">
         <v>3</v>
@@ -1844,15 +1854,15 @@
       <c r="B41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
+      <c r="C41" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
       <c r="J41" s="19"/>
       <c r="K41" s="19">
         <v>4</v>
@@ -1865,15 +1875,15 @@
       <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
+      <c r="C42" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="19" t="s">
         <v>51</v>
       </c>
@@ -1888,15 +1898,15 @@
       <c r="B43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
+      <c r="C43" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
       <c r="J43" s="19" t="s">
         <v>51</v>
       </c>
@@ -1911,15 +1921,15 @@
       <c r="B44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
+      <c r="C44" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
       <c r="J44" s="19" t="s">
         <v>51</v>
       </c>
@@ -1934,15 +1944,15 @@
       <c r="B45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
+      <c r="C45" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
       <c r="J45" s="19" t="s">
         <v>51</v>
       </c>
@@ -1957,15 +1967,15 @@
       <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
+      <c r="C46" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
       <c r="J46" s="19" t="s">
         <v>51</v>
       </c>
@@ -1980,15 +1990,15 @@
       <c r="B47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
+      <c r="C47" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
       <c r="J47" s="19"/>
       <c r="K47" s="19">
         <v>1</v>
@@ -2001,15 +2011,15 @@
       <c r="B48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
+      <c r="C48" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
       <c r="J48" s="19" t="s">
         <v>51</v>
       </c>
@@ -2024,15 +2034,15 @@
       <c r="B49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
+      <c r="C49" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
       <c r="J49" s="19" t="s">
         <v>51</v>
       </c>
@@ -2047,15 +2057,15 @@
       <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
+      <c r="C50" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
       <c r="J50" s="19" t="s">
         <v>51</v>
       </c>
@@ -2070,15 +2080,15 @@
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
+      <c r="C51" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
       <c r="J51" s="19"/>
       <c r="K51" s="19">
         <v>4</v>
@@ -2091,15 +2101,15 @@
       <c r="B52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
+      <c r="C52" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
       <c r="J52" s="19"/>
       <c r="K52" s="19">
         <v>3</v>
@@ -2112,15 +2122,15 @@
       <c r="B53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
+      <c r="C53" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19">
         <v>1</v>
@@ -2133,15 +2143,15 @@
       <c r="B54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
+      <c r="C54" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
       <c r="J54" s="19"/>
       <c r="K54" s="19">
         <v>4</v>
@@ -2154,15 +2164,15 @@
       <c r="B55" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
+      <c r="C55" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
       <c r="J55" s="19"/>
       <c r="K55" s="19">
         <v>8</v>
@@ -2172,34 +2182,34 @@
       </c>
     </row>
     <row r="57" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
     </row>
     <row r="58" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41">
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28">
         <v>15</v>
       </c>
       <c r="L58" s="13" t="s">
@@ -2210,17 +2220,17 @@
       <c r="B59" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
       <c r="L59" s="13" t="s">
         <v>53</v>
       </c>
@@ -2229,17 +2239,17 @@
       <c r="B60" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
       <c r="L60" s="13" t="s">
         <v>54</v>
       </c>
@@ -2248,17 +2258,17 @@
       <c r="B61" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
       <c r="L61" s="13" t="s">
         <v>56</v>
       </c>
@@ -2267,17 +2277,17 @@
       <c r="B62" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
       <c r="L62" s="13" t="s">
         <v>55</v>
       </c>
@@ -2286,17 +2296,17 @@
       <c r="B63" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
       <c r="L63" s="13" t="s">
         <v>57</v>
       </c>
@@ -2305,17 +2315,17 @@
       <c r="B64" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
       <c r="L64" s="13" t="s">
         <v>58</v>
       </c>
@@ -2324,17 +2334,17 @@
       <c r="B65" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
       <c r="L65" s="13" t="s">
         <v>59</v>
       </c>
@@ -2343,17 +2353,17 @@
       <c r="B66" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
       <c r="L66" s="13" t="s">
         <v>60</v>
       </c>
@@ -2362,17 +2372,17 @@
       <c r="B67" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
       <c r="L67" s="13" t="s">
         <v>61</v>
       </c>
@@ -2381,17 +2391,17 @@
       <c r="B68" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
       <c r="L68" s="13" t="s">
         <v>62</v>
       </c>
@@ -2404,6 +2414,85 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="IN93kqyljkoEgClofw0Q7Or+OqrukMkref6wORKIReYkyivvK6rg1GR3bdW7P+uG208P8Qs0LzJfOpcLuDt2qQ==" saltValue="hnqcxFO1TtfD2N63/RW6dw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="103">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:I55"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
@@ -2428,85 +2517,6 @@
     <mergeCell ref="F65:I65"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="F60:I60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B11:K11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C58:E68">

--- a/Relatorio.xlsx
+++ b/Relatorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escola\Laravel\Projecto\projeto-ainet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7CA01E-5180-4683-A952-245E75416254}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14CF3CB-1186-43E4-8825-27A60D027EF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="r4nu9Ssdyn72ILa6XbtalE42PurdRQmxRqHxzo4atH0UewdE3DlkXcEp4UjmR6dvzrejvdX+lgJ5anmpyEOIJQ==" workbookSaltValue="lHIEEz18LbXEtJsTJI7DEA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="120">
   <si>
     <t>Nº Grupo</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>Campo "endereco" invalido, mas tem esse campo</t>
+  </si>
+  <si>
+    <t>Cada tipo de socio so se pode alterar a ele proprio, e cada socio so pode alterar os dados respectivos do seu tipo de user, o teste falha nisso, falha na data de nascimento, no num socio que não era suposto ser alterado</t>
   </si>
 </sst>
 </file>
@@ -774,6 +777,55 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -797,55 +849,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1249,11 +1252,11 @@
       <c r="H5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -1271,11 +1274,11 @@
       <c r="H6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -1293,57 +1296,57 @@
       <c r="H7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="9" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:11" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -1358,18 +1361,18 @@
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="2:11" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
     </row>
     <row r="16" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
@@ -1388,46 +1391,46 @@
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="2:12" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
     </row>
     <row r="21" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27" t="s">
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="17" t="s">
         <v>50</v>
       </c>
@@ -1442,15 +1445,15 @@
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="19" t="s">
         <v>51</v>
       </c>
@@ -1465,15 +1468,15 @@
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19">
         <v>1</v>
@@ -1486,15 +1489,15 @@
       <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="19" t="s">
         <v>51</v>
       </c>
@@ -1509,15 +1512,15 @@
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="19" t="s">
         <v>51</v>
       </c>
@@ -1532,17 +1535,17 @@
       <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="19" t="s">
         <v>51</v>
       </c>
@@ -1557,17 +1560,17 @@
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="19" t="s">
         <v>51</v>
       </c>
@@ -1582,15 +1585,17 @@
       <c r="B29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
+      <c r="C29" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="19" t="s">
         <v>51</v>
       </c>
@@ -1605,15 +1610,15 @@
       <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="19" t="s">
         <v>51</v>
       </c>
@@ -1628,15 +1633,15 @@
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="19" t="s">
         <v>51</v>
       </c>
@@ -1651,15 +1656,15 @@
       <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="19" t="s">
         <v>51</v>
       </c>
@@ -1674,15 +1679,15 @@
       <c r="B33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="19" t="s">
         <v>51</v>
       </c>
@@ -1697,15 +1702,15 @@
       <c r="B34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="19" t="s">
         <v>51</v>
       </c>
@@ -1720,15 +1725,15 @@
       <c r="B35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19">
         <v>6</v>
@@ -1741,15 +1746,15 @@
       <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="19" t="s">
         <v>51</v>
       </c>
@@ -1764,15 +1769,15 @@
       <c r="B37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="19" t="s">
         <v>51</v>
       </c>
@@ -1787,15 +1792,15 @@
       <c r="B38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="19" t="s">
         <v>51</v>
       </c>
@@ -1810,15 +1815,15 @@
       <c r="B39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="19" t="s">
         <v>51</v>
       </c>
@@ -1833,15 +1838,15 @@
       <c r="B40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19">
         <v>3</v>
@@ -1854,15 +1859,15 @@
       <c r="B41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="19"/>
       <c r="K41" s="19">
         <v>4</v>
@@ -1875,15 +1880,15 @@
       <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
       <c r="J42" s="19" t="s">
         <v>51</v>
       </c>
@@ -1898,15 +1903,15 @@
       <c r="B43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
       <c r="J43" s="19" t="s">
         <v>51</v>
       </c>
@@ -1921,15 +1926,15 @@
       <c r="B44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
       <c r="J44" s="19" t="s">
         <v>51</v>
       </c>
@@ -1944,15 +1949,15 @@
       <c r="B45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
       <c r="J45" s="19" t="s">
         <v>51</v>
       </c>
@@ -1967,15 +1972,15 @@
       <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
       <c r="J46" s="19" t="s">
         <v>51</v>
       </c>
@@ -1990,15 +1995,15 @@
       <c r="B47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
       <c r="J47" s="19"/>
       <c r="K47" s="19">
         <v>1</v>
@@ -2011,15 +2016,15 @@
       <c r="B48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
       <c r="J48" s="19" t="s">
         <v>51</v>
       </c>
@@ -2034,15 +2039,15 @@
       <c r="B49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
       <c r="J49" s="19" t="s">
         <v>51</v>
       </c>
@@ -2057,15 +2062,15 @@
       <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
       <c r="J50" s="19" t="s">
         <v>51</v>
       </c>
@@ -2080,15 +2085,15 @@
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
       <c r="J51" s="19"/>
       <c r="K51" s="19">
         <v>4</v>
@@ -2101,15 +2106,15 @@
       <c r="B52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
       <c r="J52" s="19"/>
       <c r="K52" s="19">
         <v>3</v>
@@ -2122,15 +2127,15 @@
       <c r="B53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19">
         <v>1</v>
@@ -2143,15 +2148,15 @@
       <c r="B54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
       <c r="J54" s="19"/>
       <c r="K54" s="19">
         <v>4</v>
@@ -2164,15 +2169,15 @@
       <c r="B55" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
       <c r="J55" s="19"/>
       <c r="K55" s="19">
         <v>8</v>
@@ -2182,34 +2187,34 @@
       </c>
     </row>
     <row r="57" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
     </row>
     <row r="58" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28">
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41">
         <v>15</v>
       </c>
       <c r="L58" s="13" t="s">
@@ -2220,17 +2225,17 @@
       <c r="B59" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
       <c r="L59" s="13" t="s">
         <v>53</v>
       </c>
@@ -2239,17 +2244,17 @@
       <c r="B60" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
       <c r="L60" s="13" t="s">
         <v>54</v>
       </c>
@@ -2258,17 +2263,17 @@
       <c r="B61" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
       <c r="L61" s="13" t="s">
         <v>56</v>
       </c>
@@ -2277,17 +2282,17 @@
       <c r="B62" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
       <c r="L62" s="13" t="s">
         <v>55</v>
       </c>
@@ -2296,17 +2301,17 @@
       <c r="B63" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
       <c r="L63" s="13" t="s">
         <v>57</v>
       </c>
@@ -2315,17 +2320,17 @@
       <c r="B64" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
       <c r="L64" s="13" t="s">
         <v>58</v>
       </c>
@@ -2334,17 +2339,17 @@
       <c r="B65" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
       <c r="L65" s="13" t="s">
         <v>59</v>
       </c>
@@ -2353,17 +2358,17 @@
       <c r="B66" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
       <c r="L66" s="13" t="s">
         <v>60</v>
       </c>
@@ -2372,17 +2377,17 @@
       <c r="B67" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
       <c r="L67" s="13" t="s">
         <v>61</v>
       </c>
@@ -2391,17 +2396,17 @@
       <c r="B68" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
       <c r="L68" s="13" t="s">
         <v>62</v>
       </c>
@@ -2414,85 +2419,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="IN93kqyljkoEgClofw0Q7Or+OqrukMkref6wORKIReYkyivvK6rg1GR3bdW7P+uG208P8Qs0LzJfOpcLuDt2qQ==" saltValue="hnqcxFO1TtfD2N63/RW6dw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="103">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:I55"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
@@ -2517,6 +2443,85 @@
     <mergeCell ref="F65:I65"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="F60:I60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B11:K11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C58:E68">

--- a/Relatorio.xlsx
+++ b/Relatorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escola\Laravel\Projecto\projeto-ainet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14CF3CB-1186-43E4-8825-27A60D027EF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D9ADEE-0B3C-4CE6-A9AD-8D07EED877A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="r4nu9Ssdyn72ILa6XbtalE42PurdRQmxRqHxzo4atH0UewdE3DlkXcEp4UjmR6dvzrejvdX+lgJ5anmpyEOIJQ==" workbookSaltValue="lHIEEz18LbXEtJsTJI7DEA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="121">
   <si>
     <t>Nº Grupo</t>
   </si>
@@ -498,6 +498,9 @@
   </si>
   <si>
     <t>Cada tipo de socio so se pode alterar a ele proprio, e cada socio so pode alterar os dados respectivos do seu tipo de user, o teste falha nisso, falha na data de nascimento, no num socio que não era suposto ser alterado</t>
+  </si>
+  <si>
+    <t>Dá para pesquisar por piloto, não piloto e aeromodelista (palavra completa) o teste falha; No tipo tambem diz que mostra socios a mais, apos testes verificamos que isso não é verdade; O teste tambem falha para a direção sendo que é passado direcao=true ou direcao=false; Nome + tipo tambem nao funciona, mas está a funcionar</t>
   </si>
 </sst>
 </file>
@@ -777,6 +780,43 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -790,7 +830,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -802,7 +842,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -812,43 +852,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,8 +1198,8 @@
   <dimension ref="B1:L70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29:I29"/>
+      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1252,11 +1255,11 @@
       <c r="H5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -1274,11 +1277,11 @@
       <c r="H6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -1296,57 +1299,57 @@
       <c r="H7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="9" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="2:11" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -1361,18 +1364,18 @@
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="2:11" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
@@ -1391,46 +1394,46 @@
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="2:12" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="21" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="17" t="s">
         <v>50</v>
       </c>
@@ -1445,15 +1448,15 @@
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
       <c r="J23" s="19" t="s">
         <v>51</v>
       </c>
@@ -1468,15 +1471,15 @@
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19">
         <v>1</v>
@@ -1489,15 +1492,15 @@
       <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="19" t="s">
         <v>51</v>
       </c>
@@ -1512,15 +1515,15 @@
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="19" t="s">
         <v>51</v>
       </c>
@@ -1535,17 +1538,17 @@
       <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="29" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
       <c r="J27" s="19" t="s">
         <v>51</v>
       </c>
@@ -1560,17 +1563,17 @@
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="29" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
       <c r="J28" s="19" t="s">
         <v>51</v>
       </c>
@@ -1585,17 +1588,17 @@
       <c r="B29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="29" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
       <c r="J29" s="19" t="s">
         <v>51</v>
       </c>
@@ -1610,15 +1613,15 @@
       <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="C30" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="19" t="s">
         <v>51</v>
       </c>
@@ -1633,15 +1636,17 @@
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="C31" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="19" t="s">
         <v>51</v>
       </c>
@@ -1656,15 +1661,15 @@
       <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="C32" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="19" t="s">
         <v>51</v>
       </c>
@@ -1679,15 +1684,15 @@
       <c r="B33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="C33" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="19" t="s">
         <v>51</v>
       </c>
@@ -1702,15 +1707,15 @@
       <c r="B34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="C34" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="19" t="s">
         <v>51</v>
       </c>
@@ -1725,15 +1730,15 @@
       <c r="B35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="C35" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19">
         <v>6</v>
@@ -1746,15 +1751,15 @@
       <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="19" t="s">
         <v>51</v>
       </c>
@@ -1769,15 +1774,15 @@
       <c r="B37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
       <c r="J37" s="19" t="s">
         <v>51</v>
       </c>
@@ -1792,15 +1797,15 @@
       <c r="B38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="19" t="s">
         <v>51</v>
       </c>
@@ -1815,15 +1820,15 @@
       <c r="B39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
       <c r="J39" s="19" t="s">
         <v>51</v>
       </c>
@@ -1838,15 +1843,15 @@
       <c r="B40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19">
         <v>3</v>
@@ -1859,15 +1864,15 @@
       <c r="B41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
       <c r="J41" s="19"/>
       <c r="K41" s="19">
         <v>4</v>
@@ -1880,15 +1885,15 @@
       <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="19" t="s">
         <v>51</v>
       </c>
@@ -1903,15 +1908,15 @@
       <c r="B43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
       <c r="J43" s="19" t="s">
         <v>51</v>
       </c>
@@ -1926,15 +1931,15 @@
       <c r="B44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
       <c r="J44" s="19" t="s">
         <v>51</v>
       </c>
@@ -1949,15 +1954,15 @@
       <c r="B45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
       <c r="J45" s="19" t="s">
         <v>51</v>
       </c>
@@ -1972,15 +1977,15 @@
       <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
       <c r="J46" s="19" t="s">
         <v>51</v>
       </c>
@@ -1995,15 +2000,15 @@
       <c r="B47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
       <c r="J47" s="19"/>
       <c r="K47" s="19">
         <v>1</v>
@@ -2016,15 +2021,15 @@
       <c r="B48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
       <c r="J48" s="19" t="s">
         <v>51</v>
       </c>
@@ -2039,15 +2044,15 @@
       <c r="B49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
       <c r="J49" s="19" t="s">
         <v>51</v>
       </c>
@@ -2062,15 +2067,15 @@
       <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
       <c r="J50" s="19" t="s">
         <v>51</v>
       </c>
@@ -2085,15 +2090,15 @@
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
       <c r="J51" s="19"/>
       <c r="K51" s="19">
         <v>4</v>
@@ -2106,15 +2111,15 @@
       <c r="B52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
       <c r="J52" s="19"/>
       <c r="K52" s="19">
         <v>3</v>
@@ -2127,15 +2132,15 @@
       <c r="B53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19">
         <v>1</v>
@@ -2148,15 +2153,15 @@
       <c r="B54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
       <c r="J54" s="19"/>
       <c r="K54" s="19">
         <v>4</v>
@@ -2169,15 +2174,15 @@
       <c r="B55" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
       <c r="J55" s="19"/>
       <c r="K55" s="19">
         <v>8</v>
@@ -2187,34 +2192,34 @@
       </c>
     </row>
     <row r="57" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
     </row>
     <row r="58" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41">
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28">
         <v>15</v>
       </c>
       <c r="L58" s="13" t="s">
@@ -2225,17 +2230,17 @@
       <c r="B59" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
       <c r="L59" s="13" t="s">
         <v>53</v>
       </c>
@@ -2244,17 +2249,17 @@
       <c r="B60" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
       <c r="L60" s="13" t="s">
         <v>54</v>
       </c>
@@ -2263,17 +2268,17 @@
       <c r="B61" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
       <c r="L61" s="13" t="s">
         <v>56</v>
       </c>
@@ -2282,17 +2287,17 @@
       <c r="B62" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
       <c r="L62" s="13" t="s">
         <v>55</v>
       </c>
@@ -2301,17 +2306,17 @@
       <c r="B63" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
       <c r="L63" s="13" t="s">
         <v>57</v>
       </c>
@@ -2320,17 +2325,17 @@
       <c r="B64" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
       <c r="L64" s="13" t="s">
         <v>58</v>
       </c>
@@ -2339,17 +2344,17 @@
       <c r="B65" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
       <c r="L65" s="13" t="s">
         <v>59</v>
       </c>
@@ -2358,17 +2363,17 @@
       <c r="B66" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
       <c r="L66" s="13" t="s">
         <v>60</v>
       </c>
@@ -2377,17 +2382,17 @@
       <c r="B67" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
       <c r="L67" s="13" t="s">
         <v>61</v>
       </c>
@@ -2396,17 +2401,17 @@
       <c r="B68" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
       <c r="L68" s="13" t="s">
         <v>62</v>
       </c>
@@ -2419,6 +2424,85 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="IN93kqyljkoEgClofw0Q7Or+OqrukMkref6wORKIReYkyivvK6rg1GR3bdW7P+uG208P8Qs0LzJfOpcLuDt2qQ==" saltValue="hnqcxFO1TtfD2N63/RW6dw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="103">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:I55"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
@@ -2443,85 +2527,6 @@
     <mergeCell ref="F65:I65"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="F60:I60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B11:K11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C58:E68">

--- a/Relatorio.xlsx
+++ b/Relatorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escola\Laravel\Projecto\projeto-ainet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D9ADEE-0B3C-4CE6-A9AD-8D07EED877A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA37D342-D491-403A-9D6B-AAC1B26F6BD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="r4nu9Ssdyn72ILa6XbtalE42PurdRQmxRqHxzo4atH0UewdE3DlkXcEp4UjmR6dvzrejvdX+lgJ5anmpyEOIJQ==" workbookSaltValue="lHIEEz18LbXEtJsTJI7DEA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="125">
   <si>
     <t>Nº Grupo</t>
   </si>
@@ -497,10 +497,22 @@
     <t>Campo "endereco" invalido, mas tem esse campo</t>
   </si>
   <si>
-    <t>Cada tipo de socio so se pode alterar a ele proprio, e cada socio so pode alterar os dados respectivos do seu tipo de user, o teste falha nisso, falha na data de nascimento, no num socio que não era suposto ser alterado</t>
-  </si>
-  <si>
     <t>Dá para pesquisar por piloto, não piloto e aeromodelista (palavra completa) o teste falha; No tipo tambem diz que mostra socios a mais, apos testes verificamos que isso não é verdade; O teste tambem falha para a direção sendo que é passado direcao=true ou direcao=false; Nome + tipo tambem nao funciona, mas está a funcionar</t>
+  </si>
+  <si>
+    <t>Falha quase tudo em teste mas não é suposto</t>
+  </si>
+  <si>
+    <t>tem tudo implentado e não passa nos testes</t>
+  </si>
+  <si>
+    <t>A lista tem id do movimento e mesmo assim não passa nos testes</t>
+  </si>
+  <si>
+    <t>Tem descrição do voo com a palavra completa, falha nos restantes filtros porque não visualiza todos talvez por causa da paginacao? Tudo está a funcionar</t>
+  </si>
+  <si>
+    <t>Para obter Horas das aeronave mês ano, deve se escolher um ano, para obter piloto mês ano tem se escolher ano e depois piloto, para visualizar piloto por ano, tem que se escolher piloto, são dois filtros de pilotos diferentes um so com os pilotos daquele ano e outro com todos os da bd</t>
   </si>
 </sst>
 </file>
@@ -780,6 +792,55 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -803,55 +864,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1199,7 +1211,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35:I35"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1255,11 +1267,11 @@
       <c r="H5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
@@ -1277,11 +1289,11 @@
       <c r="H6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -1299,57 +1311,57 @@
       <c r="H7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="9" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:11" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
@@ -1364,18 +1376,18 @@
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="2:11" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
     </row>
     <row r="16" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
@@ -1394,46 +1406,46 @@
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="2:12" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
     </row>
     <row r="21" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27" t="s">
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="17" t="s">
         <v>50</v>
       </c>
@@ -1448,15 +1460,15 @@
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="19" t="s">
         <v>51</v>
       </c>
@@ -1471,15 +1483,15 @@
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19">
         <v>1</v>
@@ -1492,15 +1504,15 @@
       <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="19" t="s">
         <v>51</v>
       </c>
@@ -1515,15 +1527,15 @@
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="19" t="s">
         <v>51</v>
       </c>
@@ -1538,17 +1550,17 @@
       <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="19" t="s">
         <v>51</v>
       </c>
@@ -1563,17 +1575,17 @@
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="19" t="s">
         <v>51</v>
       </c>
@@ -1588,17 +1600,17 @@
       <c r="B29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="19" t="s">
         <v>51</v>
       </c>
@@ -1613,15 +1625,17 @@
       <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="19" t="s">
         <v>51</v>
       </c>
@@ -1636,17 +1650,17 @@
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="19" t="s">
         <v>51</v>
       </c>
@@ -1661,15 +1675,15 @@
       <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="19" t="s">
         <v>51</v>
       </c>
@@ -1684,15 +1698,17 @@
       <c r="B33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="19" t="s">
         <v>51</v>
       </c>
@@ -1707,15 +1723,17 @@
       <c r="B34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="19" t="s">
         <v>51</v>
       </c>
@@ -1730,15 +1748,17 @@
       <c r="B35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19">
         <v>6</v>
@@ -1751,15 +1771,15 @@
       <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="19" t="s">
         <v>51</v>
       </c>
@@ -1774,15 +1794,15 @@
       <c r="B37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="19" t="s">
         <v>51</v>
       </c>
@@ -1797,15 +1817,15 @@
       <c r="B38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="19" t="s">
         <v>51</v>
       </c>
@@ -1820,15 +1840,15 @@
       <c r="B39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="19" t="s">
         <v>51</v>
       </c>
@@ -1843,15 +1863,15 @@
       <c r="B40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19">
         <v>3</v>
@@ -1864,15 +1884,15 @@
       <c r="B41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="19"/>
       <c r="K41" s="19">
         <v>4</v>
@@ -1885,15 +1905,15 @@
       <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
       <c r="J42" s="19" t="s">
         <v>51</v>
       </c>
@@ -1908,15 +1928,15 @@
       <c r="B43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
       <c r="J43" s="19" t="s">
         <v>51</v>
       </c>
@@ -1931,15 +1951,15 @@
       <c r="B44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
       <c r="J44" s="19" t="s">
         <v>51</v>
       </c>
@@ -1954,15 +1974,15 @@
       <c r="B45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
       <c r="J45" s="19" t="s">
         <v>51</v>
       </c>
@@ -1977,15 +1997,15 @@
       <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
       <c r="J46" s="19" t="s">
         <v>51</v>
       </c>
@@ -2000,15 +2020,15 @@
       <c r="B47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
       <c r="J47" s="19"/>
       <c r="K47" s="19">
         <v>1</v>
@@ -2021,15 +2041,15 @@
       <c r="B48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
       <c r="J48" s="19" t="s">
         <v>51</v>
       </c>
@@ -2044,15 +2064,15 @@
       <c r="B49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
       <c r="J49" s="19" t="s">
         <v>51</v>
       </c>
@@ -2067,15 +2087,15 @@
       <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
       <c r="J50" s="19" t="s">
         <v>51</v>
       </c>
@@ -2090,15 +2110,15 @@
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
       <c r="J51" s="19"/>
       <c r="K51" s="19">
         <v>4</v>
@@ -2111,15 +2131,15 @@
       <c r="B52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
       <c r="J52" s="19"/>
       <c r="K52" s="19">
         <v>3</v>
@@ -2132,15 +2152,15 @@
       <c r="B53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19">
         <v>1</v>
@@ -2153,15 +2173,15 @@
       <c r="B54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
       <c r="J54" s="19"/>
       <c r="K54" s="19">
         <v>4</v>
@@ -2174,15 +2194,15 @@
       <c r="B55" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
       <c r="J55" s="19"/>
       <c r="K55" s="19">
         <v>8</v>
@@ -2192,34 +2212,34 @@
       </c>
     </row>
     <row r="57" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
     </row>
     <row r="58" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28">
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41">
         <v>15</v>
       </c>
       <c r="L58" s="13" t="s">
@@ -2230,17 +2250,17 @@
       <c r="B59" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
       <c r="L59" s="13" t="s">
         <v>53</v>
       </c>
@@ -2249,17 +2269,17 @@
       <c r="B60" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
       <c r="L60" s="13" t="s">
         <v>54</v>
       </c>
@@ -2268,17 +2288,17 @@
       <c r="B61" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
       <c r="L61" s="13" t="s">
         <v>56</v>
       </c>
@@ -2287,17 +2307,17 @@
       <c r="B62" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
       <c r="L62" s="13" t="s">
         <v>55</v>
       </c>
@@ -2306,17 +2326,17 @@
       <c r="B63" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
       <c r="L63" s="13" t="s">
         <v>57</v>
       </c>
@@ -2325,17 +2345,17 @@
       <c r="B64" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
       <c r="L64" s="13" t="s">
         <v>58</v>
       </c>
@@ -2344,17 +2364,17 @@
       <c r="B65" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
       <c r="L65" s="13" t="s">
         <v>59</v>
       </c>
@@ -2363,17 +2383,17 @@
       <c r="B66" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
       <c r="L66" s="13" t="s">
         <v>60</v>
       </c>
@@ -2382,17 +2402,17 @@
       <c r="B67" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
       <c r="L67" s="13" t="s">
         <v>61</v>
       </c>
@@ -2401,17 +2421,17 @@
       <c r="B68" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
       <c r="L68" s="13" t="s">
         <v>62</v>
       </c>
@@ -2424,85 +2444,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="IN93kqyljkoEgClofw0Q7Or+OqrukMkref6wORKIReYkyivvK6rg1GR3bdW7P+uG208P8Qs0LzJfOpcLuDt2qQ==" saltValue="hnqcxFO1TtfD2N63/RW6dw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="103">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:I55"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
@@ -2527,6 +2468,85 @@
     <mergeCell ref="F65:I65"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="F60:I60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B11:K11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C58:E68">

--- a/Relatorio.xlsx
+++ b/Relatorio.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escola\Laravel\Projecto\projeto-ainet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ainet\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA37D342-D491-403A-9D6B-AAC1B26F6BD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9729A13-5477-4955-BDD2-8755F959E109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="r4nu9Ssdyn72ILa6XbtalE42PurdRQmxRqHxzo4atH0UewdE3DlkXcEp4UjmR6dvzrejvdX+lgJ5anmpyEOIJQ==" workbookSaltValue="lHIEEz18LbXEtJsTJI7DEA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório Projeto AI 2018-19" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="127">
   <si>
     <t>Nº Grupo</t>
   </si>
@@ -513,6 +513,12 @@
   </si>
   <si>
     <t>Para obter Horas das aeronave mês ano, deve se escolher um ano, para obter piloto mês ano tem se escolher ano e depois piloto, para visualizar piloto por ano, tem que se escolher piloto, são dois filtros de pilotos diferentes um so com os pilotos daquele ano e outro com todos os da bd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIL:  A lista de sócios não tem nenhum botão ou hiperlink para declarar as quotas como pagas ou não pagas -&gt;Existe o botão; FAIL:A lista de sócios não tem nenhum botão ou hiperlink para fazer o Reset a todas as quotas-&gt;Existe o botão  </t>
+  </si>
+  <si>
+    <t>Considerado</t>
   </si>
 </sst>
 </file>
@@ -792,6 +798,43 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -805,7 +848,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -817,7 +860,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -827,43 +870,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1209,29 +1215,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36:I36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50:E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.19921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" style="2" customWidth="1"/>
     <col min="7" max="7" width="2.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="82.5" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="78.75" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="10.75" style="2"/>
+    <col min="10" max="11" width="7.69921875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="78.69921875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="10.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1242,16 +1248,16 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1267,13 +1273,13 @@
       <c r="H5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-    </row>
-    <row r="6" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1289,13 +1295,13 @@
       <c r="H6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-    </row>
-    <row r="7" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1311,141 +1317,141 @@
       <c r="H7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-    </row>
-    <row r="9" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="9" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="2:11" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-    </row>
-    <row r="12" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-    </row>
-    <row r="13" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="2:11" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="2:11" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="2:11" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-    </row>
-    <row r="16" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="2:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="2:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="2:12" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-    </row>
-    <row r="21" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
+    <row r="19" spans="2:12" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="21" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-    </row>
-    <row r="22" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="17" t="s">
         <v>50</v>
       </c>
@@ -1456,19 +1462,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
       <c r="J23" s="19" t="s">
         <v>51</v>
       </c>
@@ -1479,19 +1485,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19">
         <v>1</v>
@@ -1500,19 +1506,19 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="19" t="s">
         <v>51</v>
       </c>
@@ -1523,19 +1529,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="19" t="s">
         <v>51</v>
       </c>
@@ -1546,21 +1552,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="29" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
       <c r="J27" s="19" t="s">
         <v>51</v>
       </c>
@@ -1571,21 +1577,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="29" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
       <c r="J28" s="19" t="s">
         <v>51</v>
       </c>
@@ -1596,21 +1602,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="29" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
       <c r="J29" s="19" t="s">
         <v>51</v>
       </c>
@@ -1621,21 +1627,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="29" t="s">
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="19" t="s">
         <v>51</v>
       </c>
@@ -1646,21 +1652,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="33" t="s">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="19" t="s">
         <v>51</v>
       </c>
@@ -1671,19 +1677,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="19" t="s">
         <v>51</v>
       </c>
@@ -1694,21 +1700,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="33" t="s">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="19" t="s">
         <v>51</v>
       </c>
@@ -1719,21 +1725,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="33" t="s">
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="19" t="s">
         <v>51</v>
       </c>
@@ -1744,21 +1750,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="33" t="s">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19">
         <v>6</v>
@@ -1767,19 +1773,19 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="19" t="s">
         <v>51</v>
       </c>
@@ -1790,19 +1796,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
       <c r="J37" s="19" t="s">
         <v>51</v>
       </c>
@@ -1813,19 +1819,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="19" t="s">
         <v>51</v>
       </c>
@@ -1836,19 +1842,19 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
       <c r="J39" s="19" t="s">
         <v>51</v>
       </c>
@@ -1859,19 +1865,19 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19">
         <v>3</v>
@@ -1880,19 +1886,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
       <c r="J41" s="19"/>
       <c r="K41" s="19">
         <v>4</v>
@@ -1901,19 +1907,19 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="19" t="s">
         <v>51</v>
       </c>
@@ -1924,19 +1930,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
       <c r="J43" s="19" t="s">
         <v>51</v>
       </c>
@@ -1947,19 +1953,19 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
       <c r="J44" s="19" t="s">
         <v>51</v>
       </c>
@@ -1970,19 +1976,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
       <c r="J45" s="19" t="s">
         <v>51</v>
       </c>
@@ -1993,19 +1999,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
       <c r="J46" s="19" t="s">
         <v>51</v>
       </c>
@@ -2016,19 +2022,19 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
+      <c r="C47" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
       <c r="J47" s="19"/>
       <c r="K47" s="19">
         <v>1</v>
@@ -2037,19 +2043,21 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
+      <c r="C48" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
       <c r="J48" s="19" t="s">
         <v>51</v>
       </c>
@@ -2060,19 +2068,19 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
+      <c r="C49" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
       <c r="J49" s="19" t="s">
         <v>51</v>
       </c>
@@ -2083,19 +2091,19 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
       <c r="J50" s="19" t="s">
         <v>51</v>
       </c>
@@ -2106,19 +2114,19 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
       <c r="J51" s="19"/>
       <c r="K51" s="19">
         <v>4</v>
@@ -2127,19 +2135,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
+      <c r="C52" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
       <c r="J52" s="19"/>
       <c r="K52" s="19">
         <v>3</v>
@@ -2148,19 +2156,19 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
+      <c r="C53" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19">
         <v>1</v>
@@ -2169,19 +2177,19 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
+      <c r="C54" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
       <c r="J54" s="19"/>
       <c r="K54" s="19">
         <v>4</v>
@@ -2190,19 +2198,19 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
       <c r="J55" s="19"/>
       <c r="K55" s="19">
         <v>8</v>
@@ -2211,232 +2219,232 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="37" t="s">
+    <row r="57" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-    </row>
-    <row r="58" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+    </row>
+    <row r="58" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41">
+      <c r="C58" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28">
         <v>15</v>
       </c>
       <c r="L58" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
+      <c r="C59" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
       <c r="L59" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
+      <c r="C60" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
       <c r="L60" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
+      <c r="C61" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
       <c r="L61" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
+      <c r="C62" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
       <c r="L62" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
+      <c r="C63" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
       <c r="L63" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
+      <c r="C64" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
       <c r="L64" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
+      <c r="C65" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
       <c r="L65" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
       <c r="L66" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
       <c r="L67" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
       <c r="L68" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="2:12" s="21" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" s="21" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="22" t="s">
         <v>110</v>
       </c>
@@ -2444,6 +2452,85 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="IN93kqyljkoEgClofw0Q7Or+OqrukMkref6wORKIReYkyivvK6rg1GR3bdW7P+uG208P8Qs0LzJfOpcLuDt2qQ==" saltValue="hnqcxFO1TtfD2N63/RW6dw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="103">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:I55"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
@@ -2468,85 +2555,6 @@
     <mergeCell ref="F65:I65"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="F60:I60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B11:K11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C58:E68">

--- a/Relatorio.xlsx
+++ b/Relatorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ainet\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9729A13-5477-4955-BDD2-8755F959E109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3FA6F9-174D-4183-A884-85D5BA43FF70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="r4nu9Ssdyn72ILa6XbtalE42PurdRQmxRqHxzo4atH0UewdE3DlkXcEp4UjmR6dvzrejvdX+lgJ5anmpyEOIJQ==" workbookSaltValue="lHIEEz18LbXEtJsTJI7DEA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="128">
   <si>
     <t>Nº Grupo</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>Considerado</t>
+  </si>
+  <si>
+    <t>FAIL: A lista de sócios não tem botões ou hiperlinks para ativar/desativar um sócio -&gt; Existe o botão; FAIL: A lista de sócios não tem nenhum botão ou hiperlink para desativar todos os sócios sem quotas -&gt; Existe o botão</t>
   </si>
 </sst>
 </file>
@@ -798,6 +801,55 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -821,55 +873,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,8 +1219,8 @@
   <dimension ref="B1:L70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50:E50"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1273,11 +1276,11 @@
       <c r="H5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
@@ -1295,11 +1298,11 @@
       <c r="H6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
@@ -1317,57 +1320,57 @@
       <c r="H7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
     </row>
     <row r="9" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:11" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
@@ -1382,18 +1385,18 @@
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="2:11" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
     </row>
     <row r="16" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
@@ -1412,46 +1415,46 @@
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="2:12" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
     </row>
     <row r="21" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27" t="s">
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="17" t="s">
         <v>50</v>
       </c>
@@ -1466,15 +1469,15 @@
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="19" t="s">
         <v>51</v>
       </c>
@@ -1489,15 +1492,15 @@
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19">
         <v>1</v>
@@ -1510,15 +1513,15 @@
       <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="19" t="s">
         <v>51</v>
       </c>
@@ -1533,15 +1536,15 @@
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="19" t="s">
         <v>51</v>
       </c>
@@ -1556,17 +1559,17 @@
       <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="19" t="s">
         <v>51</v>
       </c>
@@ -1581,17 +1584,17 @@
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="19" t="s">
         <v>51</v>
       </c>
@@ -1606,17 +1609,17 @@
       <c r="B29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37" t="s">
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="19" t="s">
         <v>51</v>
       </c>
@@ -1631,17 +1634,17 @@
       <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="19" t="s">
         <v>51</v>
       </c>
@@ -1656,17 +1659,17 @@
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="31" t="s">
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="19" t="s">
         <v>51</v>
       </c>
@@ -1681,15 +1684,15 @@
       <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="19" t="s">
         <v>51</v>
       </c>
@@ -1704,17 +1707,17 @@
       <c r="B33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="31" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="19" t="s">
         <v>51</v>
       </c>
@@ -1729,17 +1732,17 @@
       <c r="B34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="31" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="19" t="s">
         <v>51</v>
       </c>
@@ -1754,17 +1757,17 @@
       <c r="B35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="31" t="s">
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19">
         <v>6</v>
@@ -1777,15 +1780,15 @@
       <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="19" t="s">
         <v>51</v>
       </c>
@@ -1800,15 +1803,15 @@
       <c r="B37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="19" t="s">
         <v>51</v>
       </c>
@@ -1823,15 +1826,15 @@
       <c r="B38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="19" t="s">
         <v>51</v>
       </c>
@@ -1846,15 +1849,15 @@
       <c r="B39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="19" t="s">
         <v>51</v>
       </c>
@@ -1869,15 +1872,15 @@
       <c r="B40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19">
         <v>3</v>
@@ -1890,15 +1893,15 @@
       <c r="B41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="19"/>
       <c r="K41" s="19">
         <v>4</v>
@@ -1911,15 +1914,15 @@
       <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
       <c r="J42" s="19" t="s">
         <v>51</v>
       </c>
@@ -1934,15 +1937,15 @@
       <c r="B43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
       <c r="J43" s="19" t="s">
         <v>51</v>
       </c>
@@ -1957,15 +1960,15 @@
       <c r="B44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
       <c r="J44" s="19" t="s">
         <v>51</v>
       </c>
@@ -1980,15 +1983,15 @@
       <c r="B45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
       <c r="J45" s="19" t="s">
         <v>51</v>
       </c>
@@ -2003,15 +2006,15 @@
       <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
       <c r="J46" s="19" t="s">
         <v>51</v>
       </c>
@@ -2026,15 +2029,15 @@
       <c r="B47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
       <c r="J47" s="19"/>
       <c r="K47" s="19">
         <v>1</v>
@@ -2047,17 +2050,17 @@
       <c r="B48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="31" t="s">
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
       <c r="J48" s="19" t="s">
         <v>51</v>
       </c>
@@ -2072,15 +2075,17 @@
       <c r="B49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C49" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
       <c r="J49" s="19" t="s">
         <v>51</v>
       </c>
@@ -2095,15 +2100,15 @@
       <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
       <c r="J50" s="19" t="s">
         <v>51</v>
       </c>
@@ -2118,15 +2123,15 @@
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
       <c r="J51" s="19"/>
       <c r="K51" s="19">
         <v>4</v>
@@ -2139,15 +2144,15 @@
       <c r="B52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
       <c r="J52" s="19"/>
       <c r="K52" s="19">
         <v>3</v>
@@ -2160,15 +2165,15 @@
       <c r="B53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19">
         <v>1</v>
@@ -2181,15 +2186,15 @@
       <c r="B54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
       <c r="J54" s="19"/>
       <c r="K54" s="19">
         <v>4</v>
@@ -2202,15 +2207,15 @@
       <c r="B55" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
       <c r="J55" s="19"/>
       <c r="K55" s="19">
         <v>8</v>
@@ -2220,34 +2225,34 @@
       </c>
     </row>
     <row r="57" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
     </row>
     <row r="58" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28">
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41">
         <v>15</v>
       </c>
       <c r="L58" s="13" t="s">
@@ -2258,17 +2263,17 @@
       <c r="B59" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
       <c r="L59" s="13" t="s">
         <v>53</v>
       </c>
@@ -2277,17 +2282,17 @@
       <c r="B60" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
       <c r="L60" s="13" t="s">
         <v>54</v>
       </c>
@@ -2296,17 +2301,17 @@
       <c r="B61" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
       <c r="L61" s="13" t="s">
         <v>56</v>
       </c>
@@ -2315,17 +2320,17 @@
       <c r="B62" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
       <c r="L62" s="13" t="s">
         <v>55</v>
       </c>
@@ -2334,17 +2339,17 @@
       <c r="B63" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
       <c r="L63" s="13" t="s">
         <v>57</v>
       </c>
@@ -2353,17 +2358,17 @@
       <c r="B64" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
       <c r="L64" s="13" t="s">
         <v>58</v>
       </c>
@@ -2372,17 +2377,17 @@
       <c r="B65" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
       <c r="L65" s="13" t="s">
         <v>59</v>
       </c>
@@ -2391,17 +2396,17 @@
       <c r="B66" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="C66" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
       <c r="L66" s="13" t="s">
         <v>60</v>
       </c>
@@ -2410,17 +2415,17 @@
       <c r="B67" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
       <c r="L67" s="13" t="s">
         <v>61</v>
       </c>
@@ -2429,17 +2434,17 @@
       <c r="B68" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
       <c r="L68" s="13" t="s">
         <v>62</v>
       </c>
@@ -2452,85 +2457,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="IN93kqyljkoEgClofw0Q7Or+OqrukMkref6wORKIReYkyivvK6rg1GR3bdW7P+uG208P8Qs0LzJfOpcLuDt2qQ==" saltValue="hnqcxFO1TtfD2N63/RW6dw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="103">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:I55"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
@@ -2555,6 +2481,85 @@
     <mergeCell ref="F65:I65"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="F60:I60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B11:K11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C58:E68">

--- a/Relatorio.xlsx
+++ b/Relatorio.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ainet\proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ainet\projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3FA6F9-174D-4183-A884-85D5BA43FF70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D46DFA-8627-46B7-87E7-E9989316B3B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="r4nu9Ssdyn72ILa6XbtalE42PurdRQmxRqHxzo4atH0UewdE3DlkXcEp4UjmR6dvzrejvdX+lgJ5anmpyEOIJQ==" workbookSaltValue="lHIEEz18LbXEtJsTJI7DEA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório Projeto AI 2018-19" sheetId="1" r:id="rId1"/>
@@ -801,6 +801,43 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -814,7 +851,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -826,7 +863,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -836,43 +873,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1219,28 +1219,28 @@
   <dimension ref="B1:L70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49:I49"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.19921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.19921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="2.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="82.5" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.69921875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="78.69921875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="10.69921875" style="2"/>
+    <col min="10" max="11" width="7.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="78.75" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1251,16 +1251,16 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1276,13 +1276,13 @@
       <c r="H5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-    </row>
-    <row r="6" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1298,13 +1298,13 @@
       <c r="H6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-    </row>
-    <row r="7" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1320,141 +1320,141 @@
       <c r="H7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-    </row>
-    <row r="9" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30" t="s">
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="9" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-    </row>
-    <row r="10" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="2:11" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-    </row>
-    <row r="12" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-    </row>
-    <row r="13" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="2:11" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="2:11" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="2:11" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-    </row>
-    <row r="16" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="2:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="2:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="2:12" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-    </row>
-    <row r="21" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="38" t="s">
+    <row r="19" spans="2:12" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="21" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-    </row>
-    <row r="22" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="17" t="s">
         <v>50</v>
       </c>
@@ -1465,19 +1465,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
       <c r="J23" s="19" t="s">
         <v>51</v>
       </c>
@@ -1488,19 +1488,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19">
         <v>1</v>
@@ -1509,19 +1509,19 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="19" t="s">
         <v>51</v>
       </c>
@@ -1532,19 +1532,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="19" t="s">
         <v>51</v>
       </c>
@@ -1555,21 +1555,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="29" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
       <c r="J27" s="19" t="s">
         <v>51</v>
       </c>
@@ -1580,21 +1580,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="29" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
       <c r="J28" s="19" t="s">
         <v>51</v>
       </c>
@@ -1605,21 +1605,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="29" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
       <c r="J29" s="19" t="s">
         <v>51</v>
       </c>
@@ -1630,21 +1630,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="29" t="s">
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="19" t="s">
         <v>51</v>
       </c>
@@ -1655,21 +1655,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="33" t="s">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="19" t="s">
         <v>51</v>
       </c>
@@ -1680,19 +1680,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="19" t="s">
         <v>51</v>
       </c>
@@ -1703,21 +1703,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="33" t="s">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="19" t="s">
         <v>51</v>
       </c>
@@ -1728,21 +1728,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="33" t="s">
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="19" t="s">
         <v>51</v>
       </c>
@@ -1753,21 +1753,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="33" t="s">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19">
         <v>6</v>
@@ -1776,19 +1776,19 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
+      <c r="C36" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="19" t="s">
         <v>51</v>
       </c>
@@ -1799,19 +1799,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+      <c r="C37" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
       <c r="J37" s="19" t="s">
         <v>51</v>
       </c>
@@ -1822,19 +1822,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="19" t="s">
         <v>51</v>
       </c>
@@ -1845,19 +1845,19 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
       <c r="J39" s="19" t="s">
         <v>51</v>
       </c>
@@ -1868,19 +1868,19 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19">
         <v>3</v>
@@ -1889,19 +1889,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
       <c r="J41" s="19"/>
       <c r="K41" s="19">
         <v>4</v>
@@ -1910,19 +1910,19 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="19" t="s">
         <v>51</v>
       </c>
@@ -1933,19 +1933,19 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
+      <c r="C43" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
       <c r="J43" s="19" t="s">
         <v>51</v>
       </c>
@@ -1956,19 +1956,19 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
       <c r="J44" s="19" t="s">
         <v>51</v>
       </c>
@@ -1979,19 +1979,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
       <c r="J45" s="19" t="s">
         <v>51</v>
       </c>
@@ -2002,19 +2002,19 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
       <c r="J46" s="19" t="s">
         <v>51</v>
       </c>
@@ -2025,19 +2025,19 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
       <c r="J47" s="19"/>
       <c r="K47" s="19">
         <v>1</v>
@@ -2046,21 +2046,21 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="33" t="s">
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
       <c r="J48" s="19" t="s">
         <v>51</v>
       </c>
@@ -2071,21 +2071,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="33" t="s">
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
       <c r="J49" s="19" t="s">
         <v>51</v>
       </c>
@@ -2096,19 +2096,19 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
       <c r="J50" s="19" t="s">
         <v>51</v>
       </c>
@@ -2119,19 +2119,19 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
       <c r="J51" s="19"/>
       <c r="K51" s="19">
         <v>4</v>
@@ -2140,19 +2140,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
       <c r="J52" s="19"/>
       <c r="K52" s="19">
         <v>3</v>
@@ -2161,19 +2161,19 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19">
         <v>1</v>
@@ -2182,19 +2182,19 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
       <c r="J54" s="19"/>
       <c r="K54" s="19">
         <v>4</v>
@@ -2203,19 +2203,19 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
       <c r="J55" s="19"/>
       <c r="K55" s="19">
         <v>8</v>
@@ -2224,232 +2224,232 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="37" t="s">
+    <row r="57" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-    </row>
-    <row r="58" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+    </row>
+    <row r="58" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41">
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28">
         <v>15</v>
       </c>
       <c r="L58" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
       <c r="L59" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
       <c r="L60" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
       <c r="L61" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
       <c r="L62" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
       <c r="L63" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
       <c r="L64" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
       <c r="L65" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
       <c r="L66" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
       <c r="L67" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
       <c r="L68" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="2:12" s="21" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" s="21" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="22" t="s">
         <v>110</v>
       </c>
@@ -2457,6 +2457,85 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="IN93kqyljkoEgClofw0Q7Or+OqrukMkref6wORKIReYkyivvK6rg1GR3bdW7P+uG208P8Qs0LzJfOpcLuDt2qQ==" saltValue="hnqcxFO1TtfD2N63/RW6dw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="103">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:I55"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
@@ -2481,85 +2560,6 @@
     <mergeCell ref="F65:I65"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="F60:I60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B11:K11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C58:E68">

--- a/Relatorio.xlsx
+++ b/Relatorio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ainet\projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ainet\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D46DFA-8627-46B7-87E7-E9989316B3B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7622D6F3-64E4-4F27-99FF-9BA7BE4EE9E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="r4nu9Ssdyn72ILa6XbtalE42PurdRQmxRqHxzo4atH0UewdE3DlkXcEp4UjmR6dvzrejvdX+lgJ5anmpyEOIJQ==" workbookSaltValue="lHIEEz18LbXEtJsTJI7DEA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="129">
   <si>
     <t>Nº Grupo</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>Peso</t>
-  </si>
-  <si>
-    <t>Ignorado</t>
   </si>
   <si>
     <t>Observações Gerais</t>
@@ -522,6 +519,12 @@
   </si>
   <si>
     <t>FAIL: A lista de sócios não tem botões ou hiperlinks para ativar/desativar um sócio -&gt; Existe o botão; FAIL: A lista de sócios não tem nenhum botão ou hiperlink para desativar todos os sócios sem quotas -&gt; Existe o botão</t>
+  </si>
+  <si>
+    <t>Parcial</t>
+  </si>
+  <si>
+    <t>Falta a parte de poder selecionar mais do que um movimento para confirmar</t>
   </si>
 </sst>
 </file>
@@ -801,6 +804,55 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -824,55 +876,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,29 +1221,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43:E43"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51:I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="2.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.19921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" style="2" customWidth="1"/>
     <col min="7" max="7" width="2.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="82.5" style="2" customWidth="1"/>
-    <col min="10" max="11" width="7.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="78.75" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="10.75" style="2"/>
+    <col min="10" max="11" width="7.69921875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="78.69921875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="10.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1248,19 +1251,19 @@
         <v>27</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1271,18 +1274,18 @@
         <v>3</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1293,18 +1296,18 @@
         <v>3</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1315,148 +1318,148 @@
         <v>3</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-    </row>
-    <row r="9" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
+      <c r="I7" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="9" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-    </row>
-    <row r="11" spans="2:11" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-    </row>
-    <row r="13" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="2:11" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="14"/>
     </row>
-    <row r="14" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="2:11" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="16"/>
     </row>
-    <row r="17" spans="2:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="2:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="2:12" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="2:12" ht="130.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="21" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+    </row>
+    <row r="21" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="22" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27" t="s">
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="17" t="s">
-        <v>50</v>
       </c>
       <c r="K22" s="18" t="s">
         <v>44</v>
@@ -1465,1077 +1468,1000 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
+      <c r="C23" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23" s="19">
         <v>1</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
+      <c r="C24" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19">
         <v>1</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
+      <c r="C25" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
       <c r="J25" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25" s="19">
         <v>1</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
+      <c r="C26" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26" s="19">
         <v>1</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" s="19">
         <v>1</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
+      <c r="C28" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28" s="19">
         <v>2</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
+      <c r="C29" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29" s="19">
         <v>3</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
+      <c r="C30" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K30" s="19">
         <v>2</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
+      <c r="C31" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31" s="19">
         <v>3</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
+      <c r="C32" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32" s="19">
         <v>1</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
+      <c r="C33" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33" s="19">
         <v>3</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
+      <c r="C34" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34" s="19">
         <v>4</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
+      <c r="C35" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19">
         <v>6</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
+      <c r="C36" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36" s="19">
         <v>2</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
+      <c r="C37" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37" s="19">
         <v>3</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38" s="19">
         <v>4</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39" s="19">
         <v>2</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19">
         <v>3</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="19"/>
       <c r="K41" s="19">
         <v>4</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
       <c r="J42" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K42" s="19">
         <v>1</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
+      <c r="C43" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
       <c r="J43" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K43" s="19">
         <v>3</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
       <c r="J44" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K44" s="19">
         <v>3</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
       <c r="J45" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K45" s="19">
         <v>1</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
       <c r="J46" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K46" s="19">
         <v>3</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
+      <c r="C47" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
       <c r="J47" s="19"/>
       <c r="K47" s="19">
         <v>1</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
+      <c r="C48" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
       <c r="J48" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K48" s="19">
         <v>2</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
+      <c r="C49" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
       <c r="J49" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K49" s="19">
         <v>2</v>
       </c>
       <c r="L49" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
+      <c r="C50" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
       <c r="J50" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K50" s="19">
         <v>2</v>
       </c>
       <c r="L50" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
+      <c r="C51" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
       <c r="J51" s="19"/>
       <c r="K51" s="19">
         <v>4</v>
       </c>
       <c r="L51" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
+      <c r="C52" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
       <c r="J52" s="19"/>
       <c r="K52" s="19">
         <v>3</v>
       </c>
       <c r="L52" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
+      <c r="C53" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19">
         <v>1</v>
       </c>
       <c r="L53" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
+      <c r="C54" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
       <c r="J54" s="19"/>
       <c r="K54" s="19">
         <v>4</v>
       </c>
       <c r="L54" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
       <c r="J55" s="19"/>
       <c r="K55" s="19">
         <v>8</v>
       </c>
       <c r="L55" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+    </row>
+    <row r="58" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-    </row>
-    <row r="58" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41">
+        <v>15</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28">
-        <v>15</v>
-      </c>
-      <c r="L58" s="13" t="s">
+      <c r="C59" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
+    <row r="60" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="13" t="s">
+      <c r="C60" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="4" t="s">
+    <row r="61" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="13" t="s">
+      <c r="C61" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="13" t="s">
+    <row r="63" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
+    <row r="64" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C63" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="13" t="s">
+      <c r="C64" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="s">
+    <row r="65" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="13" t="s">
+      <c r="C65" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="4" t="s">
+    <row r="66" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="13" t="s">
+      <c r="C66" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
+    <row r="67" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="13" t="s">
+      <c r="C67" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
+    <row r="68" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="13" t="s">
+      <c r="C68" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
+    <row r="70" spans="2:12" s="21" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" s="21" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="22" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="IN93kqyljkoEgClofw0Q7Or+OqrukMkref6wORKIReYkyivvK6rg1GR3bdW7P+uG208P8Qs0LzJfOpcLuDt2qQ==" saltValue="hnqcxFO1TtfD2N63/RW6dw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="103">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:I55"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
@@ -2560,6 +2486,85 @@
     <mergeCell ref="F65:I65"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="F60:I60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B11:K11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C58:E68">

--- a/Relatorio.xlsx
+++ b/Relatorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ainet\proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7622D6F3-64E4-4F27-99FF-9BA7BE4EE9E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BD1275-A930-47F6-975D-9946461372D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="r4nu9Ssdyn72ILa6XbtalE42PurdRQmxRqHxzo4atH0UewdE3DlkXcEp4UjmR6dvzrejvdX+lgJ5anmpyEOIJQ==" workbookSaltValue="lHIEEz18LbXEtJsTJI7DEA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -804,6 +804,43 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -817,7 +854,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -829,7 +866,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -839,43 +876,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1222,8 +1222,8 @@
   <dimension ref="B1:L70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51:I51"/>
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1279,11 +1279,11 @@
       <c r="H5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
@@ -1301,11 +1301,11 @@
       <c r="H6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
@@ -1323,57 +1323,57 @@
       <c r="H7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="9" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
     </row>
     <row r="11" spans="2:11" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
@@ -1388,18 +1388,18 @@
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="2:11" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
@@ -1418,46 +1418,46 @@
       <c r="C18" s="15"/>
     </row>
     <row r="19" spans="2:12" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="21" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="17" t="s">
         <v>49</v>
       </c>
@@ -1472,15 +1472,15 @@
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
       <c r="J23" s="19" t="s">
         <v>50</v>
       </c>
@@ -1495,15 +1495,15 @@
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="28"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19">
         <v>1</v>
@@ -1516,15 +1516,15 @@
       <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="19" t="s">
         <v>50</v>
       </c>
@@ -1539,15 +1539,15 @@
       <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
       <c r="J26" s="19" t="s">
         <v>50</v>
       </c>
@@ -1562,17 +1562,17 @@
       <c r="B27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="29" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
       <c r="J27" s="19" t="s">
         <v>50</v>
       </c>
@@ -1587,17 +1587,17 @@
       <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="29" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
       <c r="J28" s="19" t="s">
         <v>50</v>
       </c>
@@ -1612,17 +1612,17 @@
       <c r="B29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="29" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
       <c r="J29" s="19" t="s">
         <v>50</v>
       </c>
@@ -1637,17 +1637,17 @@
       <c r="B30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="29" t="s">
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="19" t="s">
         <v>50</v>
       </c>
@@ -1662,17 +1662,17 @@
       <c r="B31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="33" t="s">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
       <c r="J31" s="19" t="s">
         <v>50</v>
       </c>
@@ -1687,15 +1687,15 @@
       <c r="B32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="19" t="s">
         <v>50</v>
       </c>
@@ -1710,17 +1710,17 @@
       <c r="B33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="33" t="s">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="19" t="s">
         <v>50</v>
       </c>
@@ -1735,17 +1735,17 @@
       <c r="B34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="33" t="s">
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="19" t="s">
         <v>50</v>
       </c>
@@ -1760,17 +1760,17 @@
       <c r="B35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="33" t="s">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19">
         <v>6</v>
@@ -1783,15 +1783,15 @@
       <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="19" t="s">
         <v>50</v>
       </c>
@@ -1806,15 +1806,15 @@
       <c r="B37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
       <c r="J37" s="19" t="s">
         <v>50</v>
       </c>
@@ -1829,15 +1829,15 @@
       <c r="B38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="19" t="s">
         <v>50</v>
       </c>
@@ -1852,15 +1852,15 @@
       <c r="B39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
       <c r="J39" s="19" t="s">
         <v>50</v>
       </c>
@@ -1875,15 +1875,15 @@
       <c r="B40" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19">
         <v>3</v>
@@ -1896,15 +1896,15 @@
       <c r="B41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
       <c r="J41" s="19"/>
       <c r="K41" s="19">
         <v>4</v>
@@ -1917,15 +1917,15 @@
       <c r="B42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
+      <c r="C42" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="19" t="s">
         <v>50</v>
       </c>
@@ -1940,15 +1940,15 @@
       <c r="B43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
+      <c r="C43" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
       <c r="J43" s="19" t="s">
         <v>50</v>
       </c>
@@ -1963,15 +1963,15 @@
       <c r="B44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
       <c r="J44" s="19" t="s">
         <v>50</v>
       </c>
@@ -1986,15 +1986,15 @@
       <c r="B45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
+      <c r="C45" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
       <c r="J45" s="19" t="s">
         <v>50</v>
       </c>
@@ -2009,15 +2009,15 @@
       <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
       <c r="J46" s="19" t="s">
         <v>50</v>
       </c>
@@ -2032,15 +2032,15 @@
       <c r="B47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
       <c r="J47" s="19"/>
       <c r="K47" s="19">
         <v>1</v>
@@ -2053,17 +2053,17 @@
       <c r="B48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="33" t="s">
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
       <c r="J48" s="19" t="s">
         <v>50</v>
       </c>
@@ -2078,17 +2078,17 @@
       <c r="B49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="33" t="s">
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
       <c r="J49" s="19" t="s">
         <v>50</v>
       </c>
@@ -2103,15 +2103,15 @@
       <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
       <c r="J50" s="19" t="s">
         <v>50</v>
       </c>
@@ -2126,17 +2126,17 @@
       <c r="B51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="33" t="s">
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
       <c r="J51" s="19"/>
       <c r="K51" s="19">
         <v>4</v>
@@ -2149,15 +2149,15 @@
       <c r="B52" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
       <c r="J52" s="19"/>
       <c r="K52" s="19">
         <v>3</v>
@@ -2170,15 +2170,15 @@
       <c r="B53" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19">
         <v>1</v>
@@ -2191,15 +2191,15 @@
       <c r="B54" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
       <c r="J54" s="19"/>
       <c r="K54" s="19">
         <v>4</v>
@@ -2212,15 +2212,15 @@
       <c r="B55" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
       <c r="J55" s="19"/>
       <c r="K55" s="19">
         <v>8</v>
@@ -2230,34 +2230,34 @@
       </c>
     </row>
     <row r="57" spans="2:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
     </row>
     <row r="58" spans="2:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41">
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28">
         <v>15</v>
       </c>
       <c r="L58" s="13" t="s">
@@ -2268,17 +2268,17 @@
       <c r="B59" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
       <c r="L59" s="13" t="s">
         <v>52</v>
       </c>
@@ -2287,17 +2287,17 @@
       <c r="B60" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
       <c r="L60" s="13" t="s">
         <v>53</v>
       </c>
@@ -2306,17 +2306,17 @@
       <c r="B61" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
       <c r="L61" s="13" t="s">
         <v>55</v>
       </c>
@@ -2325,17 +2325,17 @@
       <c r="B62" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
       <c r="L62" s="13" t="s">
         <v>54</v>
       </c>
@@ -2344,17 +2344,17 @@
       <c r="B63" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
       <c r="L63" s="13" t="s">
         <v>56</v>
       </c>
@@ -2363,17 +2363,17 @@
       <c r="B64" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
       <c r="L64" s="13" t="s">
         <v>57</v>
       </c>
@@ -2382,17 +2382,17 @@
       <c r="B65" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
       <c r="L65" s="13" t="s">
         <v>58</v>
       </c>
@@ -2401,17 +2401,17 @@
       <c r="B66" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
       <c r="L66" s="13" t="s">
         <v>59</v>
       </c>
@@ -2420,17 +2420,17 @@
       <c r="B67" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
       <c r="L67" s="13" t="s">
         <v>60</v>
       </c>
@@ -2439,17 +2439,17 @@
       <c r="B68" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="C68" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
       <c r="L68" s="13" t="s">
         <v>61</v>
       </c>
@@ -2462,6 +2462,85 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="IN93kqyljkoEgClofw0Q7Or+OqrukMkref6wORKIReYkyivvK6rg1GR3bdW7P+uG208P8Qs0LzJfOpcLuDt2qQ==" saltValue="hnqcxFO1TtfD2N63/RW6dw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="103">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:I55"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
@@ -2486,85 +2565,6 @@
     <mergeCell ref="F65:I65"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="F60:I60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B11:K11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C58:E68">
